--- a/Cosine Similarity/data_train_infection.xlsx
+++ b/Cosine Similarity/data_train_infection.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p11\Dropbox\Thesis 2 Jam Perhari\New Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\python\diagnosa_penyakit\Cosine Similarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ACE8A9-852E-49E6-9EDF-C7E4D0D2AF8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27327301-6641-4324-A971-313013F01ED3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="383">
   <si>
     <t>Antrax</t>
   </si>
@@ -1845,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164:B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,6 +3303,10 @@
       <c r="B78" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="C78" t="str">
+        <f>D78</f>
+        <v>Malaria (bentuk benigma)</v>
+      </c>
       <c r="D78" s="3" t="s">
         <v>317</v>
       </c>
@@ -3311,6 +3321,10 @@
       <c r="B79" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C79" t="str">
+        <f t="shared" ref="C79:C142" si="0">D79</f>
+        <v>Meningitis + perdarahan subarachnoid</v>
+      </c>
       <c r="D79" s="3" t="s">
         <v>318</v>
       </c>
@@ -3325,6 +3339,10 @@
       <c r="B80" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C80" t="str">
+        <f t="shared" si="0"/>
+        <v>Conjunctivitis</v>
+      </c>
       <c r="D80" s="3" t="s">
         <v>319</v>
       </c>
@@ -3339,6 +3357,10 @@
       <c r="B81" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="C81" t="str">
+        <f t="shared" si="0"/>
+        <v>Parotitis</v>
+      </c>
       <c r="D81" s="3" t="s">
         <v>135</v>
       </c>
@@ -3353,6 +3375,10 @@
       <c r="B82" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C82" t="str">
+        <f t="shared" si="0"/>
+        <v>Gingivitis</v>
+      </c>
       <c r="D82" s="3" t="s">
         <v>320</v>
       </c>
@@ -3367,6 +3393,10 @@
       <c r="B83" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C83" t="str">
+        <f t="shared" si="0"/>
+        <v>Karies dentis</v>
+      </c>
       <c r="D83" s="3" t="s">
         <v>321</v>
       </c>
@@ -3381,6 +3411,10 @@
       <c r="B84" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="C84" t="str">
+        <f t="shared" si="0"/>
+        <v>Common cold</v>
+      </c>
       <c r="D84" s="3" t="s">
         <v>322</v>
       </c>
@@ -3395,6 +3429,10 @@
       <c r="B85" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="C85" t="str">
+        <f t="shared" si="0"/>
+        <v>Rinitis alergi</v>
+      </c>
       <c r="D85" s="3" t="s">
         <v>323</v>
       </c>
@@ -3409,6 +3447,10 @@
       <c r="B86" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="C86" t="str">
+        <f t="shared" si="0"/>
+        <v>Rinitis bacterial</v>
+      </c>
       <c r="D86" s="3" t="s">
         <v>324</v>
       </c>
@@ -3423,6 +3465,10 @@
       <c r="B87" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="C87" t="str">
+        <f t="shared" si="0"/>
+        <v>Rinitis sika</v>
+      </c>
       <c r="D87" s="3" t="s">
         <v>325</v>
       </c>
@@ -3434,6 +3480,13 @@
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="0"/>
+        <v>Perikondritis</v>
+      </c>
       <c r="D88" s="3" t="s">
         <v>326</v>
       </c>
@@ -3445,6 +3498,13 @@
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="0"/>
+        <v>Otitis eksterna</v>
+      </c>
       <c r="D89" s="3" t="s">
         <v>327</v>
       </c>
@@ -3456,6 +3516,13 @@
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="0"/>
+        <v>Otitis media stadium oklusi</v>
+      </c>
       <c r="D90" s="3" t="s">
         <v>328</v>
       </c>
@@ -3467,6 +3534,13 @@
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="0"/>
+        <v>Otitis media stadium hiperemis</v>
+      </c>
       <c r="D91" s="3" t="s">
         <v>329</v>
       </c>
@@ -3478,6 +3552,13 @@
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="0"/>
+        <v>Otitis media stadium supurasi</v>
+      </c>
       <c r="D92" s="3" t="s">
         <v>330</v>
       </c>
@@ -3489,6 +3570,13 @@
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="0"/>
+        <v>Otitis media stadium perforasi</v>
+      </c>
       <c r="D93" s="3" t="s">
         <v>331</v>
       </c>
@@ -3500,6 +3588,13 @@
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="0"/>
+        <v>Faringitis</v>
+      </c>
       <c r="D94" s="3" t="s">
         <v>332</v>
       </c>
@@ -3511,6 +3606,13 @@
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="0"/>
+        <v>Laringitis</v>
+      </c>
       <c r="D95" s="3" t="s">
         <v>333</v>
       </c>
@@ -3522,6 +3624,13 @@
       <c r="A96">
         <v>95</v>
       </c>
+      <c r="B96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuberkulosis</v>
+      </c>
       <c r="D96" s="3" t="s">
         <v>103</v>
       </c>
@@ -3533,6 +3642,13 @@
       <c r="A97">
         <v>96</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="0"/>
+        <v>Pneumonia</v>
+      </c>
       <c r="D97" s="3" t="s">
         <v>70</v>
       </c>
@@ -3544,6 +3660,13 @@
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="0"/>
+        <v>Bronkiektasis</v>
+      </c>
       <c r="D98" s="3" t="s">
         <v>334</v>
       </c>
@@ -3555,6 +3678,13 @@
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="0"/>
+        <v>Abses paru</v>
+      </c>
       <c r="D99" s="3" t="s">
         <v>335</v>
       </c>
@@ -3566,6 +3696,13 @@
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="0"/>
+        <v>Gastritis</v>
+      </c>
       <c r="D100" s="3" t="s">
         <v>336</v>
       </c>
@@ -3577,6 +3714,13 @@
       <c r="A101">
         <v>100</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="0"/>
+        <v>Hepatitis</v>
+      </c>
       <c r="D101" s="3" t="s">
         <v>337</v>
       </c>
@@ -3588,6 +3732,13 @@
       <c r="A102">
         <v>101</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="0"/>
+        <v>Cholesistitis</v>
+      </c>
       <c r="D102" s="3" t="s">
         <v>338</v>
       </c>
@@ -3599,6 +3750,13 @@
       <c r="A103">
         <v>102</v>
       </c>
+      <c r="B103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="0"/>
+        <v>Appendicitis</v>
+      </c>
       <c r="D103" s="3" t="s">
         <v>339</v>
       </c>
@@ -3610,6 +3768,13 @@
       <c r="A104">
         <v>103</v>
       </c>
+      <c r="B104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="0"/>
+        <v>Peritonitis</v>
+      </c>
       <c r="D104" s="3" t="s">
         <v>55</v>
       </c>
@@ -3621,6 +3786,13 @@
       <c r="A105">
         <v>104</v>
       </c>
+      <c r="B105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="0"/>
+        <v>Kolitis</v>
+      </c>
       <c r="D105" s="3" t="s">
         <v>340</v>
       </c>
@@ -3632,6 +3804,13 @@
       <c r="A106">
         <v>105</v>
       </c>
+      <c r="B106" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="0"/>
+        <v>Kolera</v>
+      </c>
       <c r="D106" s="3" t="s">
         <v>341</v>
       </c>
@@ -3643,6 +3822,13 @@
       <c r="A107">
         <v>106</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="0"/>
+        <v>Diare virus</v>
+      </c>
       <c r="D107" s="3" t="s">
         <v>342</v>
       </c>
@@ -3654,6 +3840,13 @@
       <c r="A108">
         <v>107</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="0"/>
+        <v>Diare bacterial</v>
+      </c>
       <c r="D108" s="3" t="s">
         <v>343</v>
       </c>
@@ -3665,6 +3858,13 @@
       <c r="A109">
         <v>108</v>
       </c>
+      <c r="B109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="0"/>
+        <v>Disentri</v>
+      </c>
       <c r="D109" s="3" t="s">
         <v>344</v>
       </c>
@@ -3676,6 +3876,13 @@
       <c r="A110">
         <v>109</v>
       </c>
+      <c r="B110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="0"/>
+        <v>Tetanus</v>
+      </c>
       <c r="D110" s="3" t="s">
         <v>100</v>
       </c>
@@ -3687,6 +3894,13 @@
       <c r="A111">
         <v>110</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="0"/>
+        <v>Botulisme Infantilis</v>
+      </c>
       <c r="D111" s="3" t="s">
         <v>345</v>
       </c>
@@ -3698,6 +3912,13 @@
       <c r="A112">
         <v>111</v>
       </c>
+      <c r="B112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="0"/>
+        <v>Servisitis</v>
+      </c>
       <c r="D112" s="3" t="s">
         <v>12</v>
       </c>
@@ -3709,6 +3930,13 @@
       <c r="A113">
         <v>112</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="0"/>
+        <v>Filariasis</v>
+      </c>
       <c r="D113" s="3" t="s">
         <v>346</v>
       </c>
@@ -3720,6 +3948,13 @@
       <c r="A114">
         <v>113</v>
       </c>
+      <c r="B114" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="0"/>
+        <v>Uretritis</v>
+      </c>
       <c r="D114" s="3" t="s">
         <v>18</v>
       </c>
@@ -3731,6 +3966,13 @@
       <c r="A115">
         <v>114</v>
       </c>
+      <c r="B115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="0"/>
+        <v>Pyelonephritis</v>
+      </c>
       <c r="D115" s="3" t="s">
         <v>347</v>
       </c>
@@ -3742,6 +3984,13 @@
       <c r="A116">
         <v>115</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="0"/>
+        <v>Gonore</v>
+      </c>
       <c r="D116" s="3" t="s">
         <v>32</v>
       </c>
@@ -3753,6 +4002,13 @@
       <c r="A117">
         <v>116</v>
       </c>
+      <c r="B117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="0"/>
+        <v>Sifilis</v>
+      </c>
       <c r="D117" s="3" t="s">
         <v>92</v>
       </c>
@@ -3764,6 +4020,13 @@
       <c r="A118">
         <v>117</v>
       </c>
+      <c r="B118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="0"/>
+        <v>Typhoid</v>
+      </c>
       <c r="D118" s="3" t="s">
         <v>348</v>
       </c>
@@ -3774,6 +4037,13 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="0"/>
+        <v>Shigellosis</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>349</v>
@@ -3786,6 +4056,13 @@
       <c r="A120">
         <v>119</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertussis</v>
+      </c>
       <c r="D120" s="3" t="s">
         <v>350</v>
       </c>
@@ -3797,6 +4074,13 @@
       <c r="A121">
         <v>120</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="0"/>
+        <v>Herpes zoster</v>
+      </c>
       <c r="D121" s="3" t="s">
         <v>351</v>
       </c>
@@ -3808,6 +4092,13 @@
       <c r="A122">
         <v>121</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="0"/>
+        <v>Moluscum contagiosum</v>
+      </c>
       <c r="D122" s="3" t="s">
         <v>352</v>
       </c>
@@ -3819,6 +4110,13 @@
       <c r="A123">
         <v>122</v>
       </c>
+      <c r="B123" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="0"/>
+        <v>DBD</v>
+      </c>
       <c r="D123" s="3" t="s">
         <v>353</v>
       </c>
@@ -3830,6 +4128,13 @@
       <c r="A124">
         <v>123</v>
       </c>
+      <c r="B124" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="0"/>
+        <v>Kusta</v>
+      </c>
       <c r="D124" s="3" t="s">
         <v>354</v>
       </c>
@@ -3841,6 +4146,13 @@
       <c r="A125">
         <v>124</v>
       </c>
+      <c r="B125" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="0"/>
+        <v>Pelvis inflammatory disease</v>
+      </c>
       <c r="D125" s="3" t="s">
         <v>355</v>
       </c>
@@ -3852,6 +4164,13 @@
       <c r="A126">
         <v>125</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="0"/>
+        <v>Dermatitis venenata</v>
+      </c>
       <c r="D126" s="3" t="s">
         <v>356</v>
       </c>
@@ -3863,6 +4182,13 @@
       <c r="A127">
         <v>126</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="0"/>
+        <v>Sisitis</v>
+      </c>
       <c r="D127" s="3" t="s">
         <v>357</v>
       </c>
@@ -3874,6 +4200,13 @@
       <c r="A128">
         <v>127</v>
       </c>
+      <c r="B128" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="0"/>
+        <v>Antrax Kutaneus</v>
+      </c>
       <c r="D128" s="3" t="s">
         <v>358</v>
       </c>
@@ -3885,6 +4218,13 @@
       <c r="A129">
         <v>128</v>
       </c>
+      <c r="B129" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="0"/>
+        <v>Antrax intestinal</v>
+      </c>
       <c r="D129" s="3" t="s">
         <v>359</v>
       </c>
@@ -3896,6 +4236,13 @@
       <c r="A130">
         <v>129</v>
       </c>
+      <c r="B130" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="0"/>
+        <v>Botulismus</v>
+      </c>
       <c r="D130" s="3" t="s">
         <v>6</v>
       </c>
@@ -3907,6 +4254,13 @@
       <c r="A131">
         <v>130</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="0"/>
+        <v>Servisitis</v>
+      </c>
       <c r="D131" s="3" t="s">
         <v>12</v>
       </c>
@@ -3918,6 +4272,13 @@
       <c r="A132">
         <v>131</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="0"/>
+        <v>Salpingitis</v>
+      </c>
       <c r="D132" s="3" t="s">
         <v>360</v>
       </c>
@@ -3929,6 +4290,13 @@
       <c r="A133">
         <v>132</v>
       </c>
+      <c r="B133" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="0"/>
+        <v>Sindrom Uretra</v>
+      </c>
       <c r="D133" s="3" t="s">
         <v>361</v>
       </c>
@@ -3940,6 +4308,13 @@
       <c r="A134">
         <v>133</v>
       </c>
+      <c r="B134" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="0"/>
+        <v>Uretritis</v>
+      </c>
       <c r="D134" s="3" t="s">
         <v>18</v>
       </c>
@@ -3951,6 +4326,13 @@
       <c r="A135">
         <v>134</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="0"/>
+        <v>Prostatitis</v>
+      </c>
       <c r="D135" s="3" t="s">
         <v>20</v>
       </c>
@@ -3962,6 +4344,13 @@
       <c r="A136">
         <v>135</v>
       </c>
+      <c r="B136" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="0"/>
+        <v>Epididimis</v>
+      </c>
       <c r="D136" s="3" t="s">
         <v>362</v>
       </c>
@@ -3973,6 +4362,13 @@
       <c r="A137">
         <v>136</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="0"/>
+        <v>Konjungtivitis</v>
+      </c>
       <c r="D137" s="3" t="s">
         <v>29</v>
       </c>
@@ -3984,6 +4380,13 @@
       <c r="A138">
         <v>137</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="0"/>
+        <v>Proktitis</v>
+      </c>
       <c r="D138" s="3" t="s">
         <v>21</v>
       </c>
@@ -3995,6 +4398,13 @@
       <c r="A139">
         <v>138</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="0"/>
+        <v>Gonore (L)</v>
+      </c>
       <c r="D139" s="3" t="s">
         <v>363</v>
       </c>
@@ -4006,6 +4416,13 @@
       <c r="A140">
         <v>139</v>
       </c>
+      <c r="B140" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="0"/>
+        <v>Listeriosis</v>
+      </c>
       <c r="D140" s="3" t="s">
         <v>37</v>
       </c>
@@ -4017,6 +4434,13 @@
       <c r="A141">
         <v>140</v>
       </c>
+      <c r="B141" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="0"/>
+        <v>Meningitis</v>
+      </c>
       <c r="D141" s="3" t="s">
         <v>53</v>
       </c>
@@ -4028,6 +4452,13 @@
       <c r="A142">
         <v>141</v>
       </c>
+      <c r="B142" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="0"/>
+        <v>Otitis media</v>
+      </c>
       <c r="D142" s="3" t="s">
         <v>54</v>
       </c>
@@ -4039,6 +4470,13 @@
       <c r="A143">
         <v>142</v>
       </c>
+      <c r="B143" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" ref="C143:C177" si="1">D143</f>
+        <v>Plague (Penyakit Pes bubo)</v>
+      </c>
       <c r="D143" s="3" t="s">
         <v>364</v>
       </c>
@@ -4050,6 +4488,13 @@
       <c r="A144">
         <v>143</v>
       </c>
+      <c r="B144" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="1"/>
+        <v>Primary pneumonic plague (penyakit pes paru)</v>
+      </c>
       <c r="D144" s="3" t="s">
         <v>72</v>
       </c>
@@ -4061,6 +4506,13 @@
       <c r="A145">
         <v>144</v>
       </c>
+      <c r="B145" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="1"/>
+        <v>Pneumonia</v>
+      </c>
       <c r="D145" s="3" t="s">
         <v>70</v>
       </c>
@@ -4072,6 +4524,13 @@
       <c r="A146">
         <v>145</v>
       </c>
+      <c r="B146" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="1"/>
+        <v>Salmonelosis</v>
+      </c>
       <c r="D146" s="3" t="s">
         <v>71</v>
       </c>
@@ -4083,6 +4542,13 @@
       <c r="A147">
         <v>146</v>
       </c>
+      <c r="B147" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="1"/>
+        <v>Infeksi Tifoid</v>
+      </c>
       <c r="D147" s="3" t="s">
         <v>365</v>
       </c>
@@ -4094,6 +4560,13 @@
       <c r="A148">
         <v>147</v>
       </c>
+      <c r="B148" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="1"/>
+        <v>Shigolisis Anak</v>
+      </c>
       <c r="D148" s="3" t="s">
         <v>366</v>
       </c>
@@ -4105,6 +4578,13 @@
       <c r="A149">
         <v>148</v>
       </c>
+      <c r="B149" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="1"/>
+        <v>Sifilis Primer</v>
+      </c>
       <c r="D149" s="3" t="s">
         <v>93</v>
       </c>
@@ -4116,6 +4596,13 @@
       <c r="A150">
         <v>149</v>
       </c>
+      <c r="B150" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="1"/>
+        <v>Tetanus Lokal</v>
+      </c>
       <c r="D150" s="3" t="s">
         <v>367</v>
       </c>
@@ -4127,6 +4614,13 @@
       <c r="A151">
         <v>150</v>
       </c>
+      <c r="B151" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuberkulosis</v>
+      </c>
       <c r="D151" s="3" t="s">
         <v>103</v>
       </c>
@@ -4138,6 +4632,13 @@
       <c r="A152">
         <v>151</v>
       </c>
+      <c r="B152" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="1"/>
+        <v>Infeksi Saluran Kemih (Sistitis)</v>
+      </c>
       <c r="D152" s="3" t="s">
         <v>368</v>
       </c>
@@ -4149,6 +4650,13 @@
       <c r="A153">
         <v>152</v>
       </c>
+      <c r="B153" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="1"/>
+        <v>Batuk Rejan (Pertusis)</v>
+      </c>
       <c r="D153" s="3" t="s">
         <v>117</v>
       </c>
@@ -4163,6 +4671,10 @@
       <c r="B154" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="C154" t="str">
+        <f t="shared" si="1"/>
+        <v>Cacar Air</v>
+      </c>
       <c r="D154" s="3" t="s">
         <v>369</v>
       </c>
@@ -4174,6 +4686,13 @@
       <c r="A155">
         <v>154</v>
       </c>
+      <c r="B155" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="1"/>
+        <v>Herpes Simpleks Tipe 1</v>
+      </c>
       <c r="D155" s="3" t="s">
         <v>370</v>
       </c>
@@ -4185,6 +4704,13 @@
       <c r="A156">
         <v>155</v>
       </c>
+      <c r="B156" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="1"/>
+        <v>Herpes Simpleks Tipe 2</v>
+      </c>
       <c r="D156" s="3" t="s">
         <v>371</v>
       </c>
@@ -4196,6 +4722,13 @@
       <c r="A157">
         <v>156</v>
       </c>
+      <c r="B157" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="1"/>
+        <v>Herpes zoster</v>
+      </c>
       <c r="D157" s="3" t="s">
         <v>351</v>
       </c>
@@ -4207,6 +4740,13 @@
       <c r="A158">
         <v>157</v>
       </c>
+      <c r="B158" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="1"/>
+        <v>Infeksi HIV</v>
+      </c>
       <c r="D158" s="3" t="s">
         <v>133</v>
       </c>
@@ -4218,6 +4758,13 @@
       <c r="A159">
         <v>158</v>
       </c>
+      <c r="B159" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="1"/>
+        <v>Mononukleosis Infeksioma</v>
+      </c>
       <c r="D159" s="3" t="s">
         <v>372</v>
       </c>
@@ -4229,6 +4776,13 @@
       <c r="A160">
         <v>159</v>
       </c>
+      <c r="B160" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="1"/>
+        <v>Gondongan</v>
+      </c>
       <c r="D160" s="3" t="s">
         <v>373</v>
       </c>
@@ -4240,6 +4794,13 @@
       <c r="A161">
         <v>160</v>
       </c>
+      <c r="B161" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="1"/>
+        <v>Infeksi Virus Syncitial Respiratorius (Penyakit ringan)</v>
+      </c>
       <c r="D161" s="3" t="s">
         <v>374</v>
       </c>
@@ -4251,6 +4812,13 @@
       <c r="A162">
         <v>161</v>
       </c>
+      <c r="B162" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="1"/>
+        <v>Infeksi Virus Syncitial Respiratorius (Bronkitis, Pneumonia, Bronkitilis)</v>
+      </c>
       <c r="D162" s="3" t="s">
         <v>375</v>
       </c>
@@ -4262,6 +4830,13 @@
       <c r="A163">
         <v>162</v>
       </c>
+      <c r="B163" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="1"/>
+        <v>Rubela (Campak jerman)</v>
+      </c>
       <c r="D163" s="3" t="s">
         <v>376</v>
       </c>
@@ -4276,6 +4851,10 @@
       <c r="B164" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="C164" t="str">
+        <f t="shared" si="1"/>
+        <v>Cacar Air</v>
+      </c>
       <c r="D164" s="3" t="s">
         <v>369</v>
       </c>
@@ -4287,6 +4866,13 @@
       <c r="A165">
         <v>164</v>
       </c>
+      <c r="B165" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="1"/>
+        <v>Histoplasmosis primer akut</v>
+      </c>
       <c r="D165" s="3" t="s">
         <v>377</v>
       </c>
@@ -4298,6 +4884,13 @@
       <c r="A166">
         <v>165</v>
       </c>
+      <c r="B166" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="1"/>
+        <v>Malaria (bentuk benigma)</v>
+      </c>
       <c r="D166" s="3" t="s">
         <v>317</v>
       </c>
@@ -4309,6 +4902,13 @@
       <c r="A167">
         <v>166</v>
       </c>
+      <c r="B167" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="1"/>
+        <v>Skistosomiasis</v>
+      </c>
       <c r="D167" s="3" t="s">
         <v>163</v>
       </c>
@@ -4320,6 +4920,13 @@
       <c r="A168">
         <v>167</v>
       </c>
+      <c r="B168" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="1"/>
+        <v>Taksoplasmosis okuler</v>
+      </c>
       <c r="D168" s="3" t="s">
         <v>378</v>
       </c>
@@ -4331,6 +4938,13 @@
       <c r="A169">
         <v>168</v>
       </c>
+      <c r="B169" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="1"/>
+        <v>Taksoplasmosis Akuisita</v>
+      </c>
       <c r="D169" s="3" t="s">
         <v>379</v>
       </c>
@@ -4342,6 +4956,13 @@
       <c r="A170">
         <v>169</v>
       </c>
+      <c r="B170" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="1"/>
+        <v>Kongenital</v>
+      </c>
       <c r="D170" s="3" t="s">
         <v>169</v>
       </c>
@@ -4353,6 +4974,13 @@
       <c r="A171">
         <v>170</v>
       </c>
+      <c r="B171" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="1"/>
+        <v>Gonore (Perempuan)</v>
+      </c>
       <c r="D171" s="3" t="s">
         <v>380</v>
       </c>
@@ -4364,6 +4992,13 @@
       <c r="A172">
         <v>171</v>
       </c>
+      <c r="B172" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="1"/>
+        <v>Antrax Inhalasi</v>
+      </c>
       <c r="D172" s="3" t="s">
         <v>381</v>
       </c>
@@ -4375,6 +5010,13 @@
       <c r="A173">
         <v>172</v>
       </c>
+      <c r="B173" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="1"/>
+        <v>Gingivitis</v>
+      </c>
       <c r="D173" s="3" t="s">
         <v>320</v>
       </c>
@@ -4386,6 +5028,13 @@
       <c r="A174">
         <v>173</v>
       </c>
+      <c r="B174" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="1"/>
+        <v>Conjunctivitis</v>
+      </c>
       <c r="D174" s="3" t="s">
         <v>319</v>
       </c>
@@ -4397,6 +5046,13 @@
       <c r="A175">
         <v>174</v>
       </c>
+      <c r="B175" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="1"/>
+        <v>Perikondritis</v>
+      </c>
       <c r="D175" s="3" t="s">
         <v>326</v>
       </c>
@@ -4408,6 +5064,13 @@
       <c r="A176">
         <v>175</v>
       </c>
+      <c r="B176" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="1"/>
+        <v>Otomikosis</v>
+      </c>
       <c r="D176" s="3" t="s">
         <v>382</v>
       </c>
@@ -4418,6 +5081,13 @@
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="1"/>
+        <v>Diare virus</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>342</v>
